--- a/Zaslavl_Multitriathlon_2023/Zaslavl_Multitriathlon_2023.xlsx
+++ b/Zaslavl_Multitriathlon_2023/Zaslavl_Multitriathlon_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharivitalij/Projects/results-analyzer/Zaslavl_Multitriathlon_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52590ECB-ACAA-C34C-8A54-0D0B64C88A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDB5D04-5119-854C-9A2B-2669001CEA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{EB46AB1E-A8AC-C649-BCD4-6407FF722458}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="race2" localSheetId="1">Race2!$A$1:$I$58</definedName>
     <definedName name="race3" localSheetId="2">Race3!$A$1:$I$58</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="120">
   <si>
     <t>Александр Василевич</t>
   </si>
@@ -455,25 +455,13 @@
   <si>
     <t>Т сумма</t>
   </si>
-  <si>
-    <t>Самый быстрый вел</t>
-  </si>
-  <si>
-    <t>Самое быстрое плавание</t>
-  </si>
-  <si>
-    <t>Самый быстрый бег</t>
-  </si>
-  <si>
-    <t>Самые быстрая сумма транзиток</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -498,25 +486,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -525,294 +500,304 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9341D3"/>
+      <color rgb="FF6A3900"/>
+      <color rgb="FFF990FF"/>
+      <color rgb="FFAB7942"/>
+      <color rgb="FFFF2F92"/>
+      <color rgb="FFFFFC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -896,7 +881,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0665415703140093E-2"/>
+          <c:y val="6.198440814593837E-2"/>
+          <c:w val="0.91734855994303233"/>
+          <c:h val="0.88620630197211014"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1143,58 +1138,6 @@
           <c:val>
             <c:numRef>
               <c:f>Race!$AM$3:$BB$3</c:f>
-              <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1250000000000028E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5879629629629629E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9351851851852047E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2824074074074292E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.4398148148148556E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3657407407407759E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9768518518518955E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.157407407407704E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.157407407407704E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2407407407407385E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2407407407407385E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3148148148147835E-4</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2451,9 +2394,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4923,10 +4864,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9969,10 +9907,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.5901230970582218E-2"/>
-          <c:y val="6.0688619934384298E-2"/>
-          <c:w val="0.11929614600349155"/>
-          <c:h val="0.47144377095264817"/>
+          <c:x val="8.6529881675590517E-2"/>
+          <c:y val="6.4233975889286463E-2"/>
+          <c:w val="0.21684066900740426"/>
+          <c:h val="0.56666578886222496"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9988,7 +9926,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10609,15 +10547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>20484</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>24034</xdr:rowOff>
+      <xdr:colOff>7782</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>307257</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>198966</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10659,139 +10597,200 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{916C5006-0D2A-5148-8B13-860AB265C8BE}" name="Table1" displayName="Table1" ref="A1:BF60" totalsRowCount="1" headerRowDxfId="92">
-  <autoFilter ref="A1:BF59" xr:uid="{916C5006-0D2A-5148-8B13-860AB265C8BE}"/>
+  <autoFilter ref="A1:BF59" xr:uid="{916C5006-0D2A-5148-8B13-860AB265C8BE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Александр Василевич"/>
+        <filter val="Александр Дахно"/>
+        <filter val="Александр Дубковский"/>
+        <filter val="Александр Кочержук"/>
+        <filter val="Александр Маркович"/>
+        <filter val="Александр Матюш"/>
+        <filter val="Александр Новицкий"/>
+        <filter val="Александр Тылиндус"/>
+        <filter val="Александр Юрков"/>
+        <filter val="Алексей Викентьев"/>
+        <filter val="Алексей Пульман"/>
+        <filter val="Алексей Ушков"/>
+        <filter val="Алексей Шпиленя"/>
+        <filter val="Алена Григорьева"/>
+        <filter val="Алиса Тумасьян"/>
+        <filter val="Анастасия Фролова"/>
+        <filter val="Андрей Ларионов"/>
+        <filter val="Андрей Табунов"/>
+        <filter val="Андрей Чечура"/>
+        <filter val="Антон Вашкевич"/>
+        <filter val="Вадим Капустин"/>
+        <filter val="Варвара Новицкая"/>
+        <filter val="Василий Тумаш"/>
+        <filter val="Вероника Моисеева"/>
+        <filter val="Виктор Вашкевич"/>
+        <filter val="Виктор Третьяк"/>
+        <filter val="Виталий Коннов"/>
+        <filter val="Виталий Харитонов"/>
+        <filter val="Владимир Вашкевич"/>
+        <filter val="Генадий Есис"/>
+        <filter val="Даниил Падольский"/>
+        <filter val="Денис Автушко"/>
+        <filter val="Дмитрий Колтаков"/>
+        <filter val="Евгений Креч"/>
+        <filter val="Евгений Наранович"/>
+        <filter val="Иван Чигилинский"/>
+        <filter val="Илья Грицкевич"/>
+        <filter val="Илья Плетенев"/>
+        <filter val="Ирина Адамович"/>
+        <filter val="Леонид Малевич"/>
+        <filter val="Максим Кушель"/>
+        <filter val="Михаил Автушко"/>
+        <filter val="Никита Григорьев"/>
+        <filter val="Никита Харитонов"/>
+        <filter val="Николай Нестерович"/>
+        <filter val="Николас Руцкий"/>
+        <filter val="Ольга Гайдук"/>
+        <filter val="Савелий Иткин"/>
+        <filter val="Светлана Попова"/>
+        <filter val="Светлана Шарова"/>
+        <filter val="Сергей Автушко"/>
+        <filter val="Сергей Мунтян"/>
+        <filter val="Татьяна Лукша"/>
+        <filter val="Федор Коротыш"/>
+        <filter val="Эдуард Жильников"/>
+        <filter val="Юлия Дубейко"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BF59">
-    <sortCondition ref="BB1:BB59"/>
+    <sortCondition ref="AL1:AL59"/>
   </sortState>
   <tableColumns count="58">
     <tableColumn id="1" xr3:uid="{F0A0FC28-64D7-4B4F-BB17-05A5773FCBDF}" name="ФИО" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{E7BAD886-7C19-9342-B26E-171E29AA1740}" name="Номер"/>
     <tableColumn id="21" xr3:uid="{16F42E2E-F06C-9C40-A5DB-5E99783B2EE7}" name="Про"/>
-    <tableColumn id="3" xr3:uid="{5A54F067-B9BB-414D-A610-773CDC42D97D}" name="Общее 1" totalsRowFunction="min" dataDxfId="91" totalsRowDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{A218F1DA-1935-0D47-9683-F56DE6C9794E}" name="Вело 1_" totalsRowFunction="min" dataDxfId="90" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{AE621E1F-78D3-1647-9A34-71CC07ED96B9}" name="Т1 1_" totalsRowFunction="min" dataDxfId="89" totalsRowDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{0A8F97F2-2CF3-144E-8FAE-FB619E35FBB2}" name="Бег 1_" totalsRowFunction="min" dataDxfId="88" totalsRowDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{CB45516C-3240-2640-B11A-7C4942FF43C9}" name="Т2 1_" totalsRowFunction="min" dataDxfId="87" totalsRowDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{9C1DED9E-C868-AB46-B3B0-373714F9038D}" name="Плавание 1_" totalsRowFunction="min" dataDxfId="86" totalsRowDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{5D3AC8E6-ECA5-BA41-99BA-F5AE285B8712}" name="Общее 2" totalsRowFunction="min" dataDxfId="85" totalsRowDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{00E50BB4-F4C6-4B48-9050-2FDA55165535}" name="Плавание 2_" totalsRowFunction="min" dataDxfId="84" totalsRowDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{1BF33869-5D72-434A-BC18-C2B87D6BFDB2}" name="Т1 2_" totalsRowFunction="min" dataDxfId="83" totalsRowDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{1D2C13A2-EC69-FC4A-ACFB-52EEB41869C5}" name="Вело 2_" totalsRowFunction="min" dataDxfId="82" totalsRowDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{EA5D7386-E982-294D-B7DB-9A5A39692C17}" name="Т2 2_" totalsRowFunction="min" dataDxfId="81" totalsRowDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{9BEA3669-2A7F-5B4B-BD41-6E57DF0F3814}" name="Бег 2_" totalsRowFunction="min" dataDxfId="80" totalsRowDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{B6048237-0A7E-F74D-9D1E-9EF7F4B9A000}" name="Общее 3" totalsRowFunction="min" dataDxfId="79" totalsRowDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{75F28797-F8DF-5245-A3C3-3F03E6D81146}" name="Бег 3_" totalsRowFunction="min" dataDxfId="78" totalsRowDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{286E4188-3911-B449-83C2-4624C03FC088}" name="Т1 3_" totalsRowFunction="min" dataDxfId="77" totalsRowDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{F82F35AE-D03A-5B4E-9600-6FCB01991092}" name="Вело 3_" totalsRowFunction="min" dataDxfId="76" totalsRowDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{CFC790E1-6757-E54E-BB59-B21FFE5F1460}" name="Т2 3_" totalsRowFunction="min" dataDxfId="75" totalsRowDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{B62DA402-64A7-3349-8A2F-9A1743CE52F2}" name="Плавание 3_" totalsRowFunction="min" dataDxfId="74" totalsRowDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{C9E2F677-E5AE-BA44-9B87-A71733783E9D}" name="Общее" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{5A54F067-B9BB-414D-A610-773CDC42D97D}" name="Общее 1" totalsRowFunction="min" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{A218F1DA-1935-0D47-9683-F56DE6C9794E}" name="Вело 1_" totalsRowFunction="min" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{AE621E1F-78D3-1647-9A34-71CC07ED96B9}" name="Т1 1_" totalsRowFunction="min" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{0A8F97F2-2CF3-144E-8FAE-FB619E35FBB2}" name="Бег 1_" totalsRowFunction="min" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{CB45516C-3240-2640-B11A-7C4942FF43C9}" name="Т2 1_" totalsRowFunction="min" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{9C1DED9E-C868-AB46-B3B0-373714F9038D}" name="Плавание 1_" totalsRowFunction="min" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{5D3AC8E6-ECA5-BA41-99BA-F5AE285B8712}" name="Общее 2" totalsRowFunction="min" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{00E50BB4-F4C6-4B48-9050-2FDA55165535}" name="Плавание 2_" totalsRowFunction="min" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{1BF33869-5D72-434A-BC18-C2B87D6BFDB2}" name="Т1 2_" totalsRowFunction="min" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="12" xr3:uid="{1D2C13A2-EC69-FC4A-ACFB-52EEB41869C5}" name="Вело 2_" totalsRowFunction="min" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="13" xr3:uid="{EA5D7386-E982-294D-B7DB-9A5A39692C17}" name="Т2 2_" totalsRowFunction="min" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="14" xr3:uid="{9BEA3669-2A7F-5B4B-BD41-6E57DF0F3814}" name="Бег 2_" totalsRowFunction="min" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="15" xr3:uid="{B6048237-0A7E-F74D-9D1E-9EF7F4B9A000}" name="Общее 3" totalsRowFunction="min" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{75F28797-F8DF-5245-A3C3-3F03E6D81146}" name="Бег 3_" totalsRowFunction="min" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{286E4188-3911-B449-83C2-4624C03FC088}" name="Т1 3_" totalsRowFunction="min" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="18" xr3:uid="{F82F35AE-D03A-5B4E-9600-6FCB01991092}" name="Вело 3_" totalsRowFunction="min" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="19" xr3:uid="{CFC790E1-6757-E54E-BB59-B21FFE5F1460}" name="Т2 3_" totalsRowFunction="min" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="20" xr3:uid="{B62DA402-64A7-3349-8A2F-9A1743CE52F2}" name="Плавание 3_" totalsRowFunction="min" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="22" xr3:uid="{C9E2F677-E5AE-BA44-9B87-A71733783E9D}" name="Общее" totalsRowFunction="min" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Общее 1]],Table1[[#This Row],[Общее 2]],Table1[[#This Row],[Общее 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{38BC3FA7-F880-2047-9D25-109A9CC76587}" name="Старт_" totalsRowFunction="min" dataDxfId="72" totalsRowDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{45BDFD34-299B-1241-94D7-0F33FB6EE207}" name="после Вело 1" totalsRowFunction="min" dataDxfId="71" totalsRowDxfId="19">
+    <tableColumn id="23" xr3:uid="{38BC3FA7-F880-2047-9D25-109A9CC76587}" name="Старт_" totalsRowFunction="min" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="24" xr3:uid="{45BDFD34-299B-1241-94D7-0F33FB6EE207}" name="после Вело 1" totalsRowFunction="min" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Вело 1_]],Table1[[#This Row],[Старт_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{DF061DAE-860F-0B4F-9ED5-6B7206CE3313}" name="после Т1 1" totalsRowFunction="min" dataDxfId="70" totalsRowDxfId="18">
+    <tableColumn id="25" xr3:uid="{DF061DAE-860F-0B4F-9ED5-6B7206CE3313}" name="после Т1 1" totalsRowFunction="min" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Вело 1]],Table1[[#This Row],[Т1 1_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{616F4966-81E7-D74D-91DD-6B79D2C7571B}" name="после Бег 1" totalsRowFunction="min" dataDxfId="69" totalsRowDxfId="17">
+    <tableColumn id="26" xr3:uid="{616F4966-81E7-D74D-91DD-6B79D2C7571B}" name="после Бег 1" totalsRowFunction="min" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Т1 1]],Table1[[#This Row],[Бег 1_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{6534F799-2DBF-A944-8989-3F8F56324B3F}" name="после Т2 1" totalsRowFunction="min" dataDxfId="68" totalsRowDxfId="16">
+    <tableColumn id="27" xr3:uid="{6534F799-2DBF-A944-8989-3F8F56324B3F}" name="после Т2 1" totalsRowFunction="min" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Бег 1]],Table1[[#This Row],[Т2 1_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{A240BC6C-A68E-5F49-88B2-E33758BF5D67}" name="после Плавание 1" totalsRowFunction="min" dataDxfId="67" totalsRowDxfId="15">
+    <tableColumn id="28" xr3:uid="{A240BC6C-A68E-5F49-88B2-E33758BF5D67}" name="после Плавание 1" totalsRowFunction="min" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Т2 1]],Table1[[#This Row],[Плавание 1_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{34E12125-734B-ED48-8B71-F308B818CF73}" name="после Плавание 2" totalsRowFunction="min" dataDxfId="66" totalsRowDxfId="14">
+    <tableColumn id="29" xr3:uid="{34E12125-734B-ED48-8B71-F308B818CF73}" name="после Плавание 2" totalsRowFunction="min" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Плавание 1]],Table1[[#This Row],[Плавание 2_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{E45799AA-A26A-2B49-8612-8940D1256D24}" name="после Т1 2" totalsRowFunction="min" dataDxfId="65" totalsRowDxfId="13">
+    <tableColumn id="30" xr3:uid="{E45799AA-A26A-2B49-8612-8940D1256D24}" name="после Т1 2" totalsRowFunction="min" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Плавание 2]],Table1[[#This Row],[Т1 2_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{4DA0985B-64D9-5248-9A26-5C1A4D07BA84}" name="после Вело 2" totalsRowFunction="min" dataDxfId="64" totalsRowDxfId="12">
+    <tableColumn id="31" xr3:uid="{4DA0985B-64D9-5248-9A26-5C1A4D07BA84}" name="после Вело 2" totalsRowFunction="min" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Т1 2]],Table1[[#This Row],[Вело 2_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{DA0DDE25-C04D-9143-AF1F-B7AFD52A491C}" name="после Т2 2" totalsRowFunction="min" dataDxfId="63" totalsRowDxfId="11">
+    <tableColumn id="32" xr3:uid="{DA0DDE25-C04D-9143-AF1F-B7AFD52A491C}" name="после Т2 2" totalsRowFunction="min" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Вело 2]],Table1[[#This Row],[Т2 2_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{E59B5929-BC83-224B-86AD-642993B143C1}" name="после Бег 2" totalsRowFunction="min" dataDxfId="62" totalsRowDxfId="10">
+    <tableColumn id="33" xr3:uid="{E59B5929-BC83-224B-86AD-642993B143C1}" name="после Бег 2" totalsRowFunction="min" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Т2 2]],Table1[[#This Row],[Бег 2_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{5B8D339C-74DA-7C4A-908A-455B62886050}" name="после Бег 3" totalsRowFunction="min" dataDxfId="61" totalsRowDxfId="9">
+    <tableColumn id="34" xr3:uid="{5B8D339C-74DA-7C4A-908A-455B62886050}" name="после Бег 3" totalsRowFunction="min" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Бег 2]],Table1[[#This Row],[Бег 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{F39BF3C7-367C-D547-A59B-EE455B1F3766}" name="после Т1 3" totalsRowFunction="min" dataDxfId="60" totalsRowDxfId="8">
+    <tableColumn id="35" xr3:uid="{F39BF3C7-367C-D547-A59B-EE455B1F3766}" name="после Т1 3" totalsRowFunction="min" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Бег 3]],Table1[[#This Row],[Т1 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{BC63C52D-8A1E-A244-87ED-9255B3132915}" name="после Вело 3" totalsRowFunction="min" dataDxfId="59" totalsRowDxfId="7">
+    <tableColumn id="36" xr3:uid="{BC63C52D-8A1E-A244-87ED-9255B3132915}" name="после Вело 3" totalsRowFunction="min" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Т1 3]],Table1[[#This Row],[Вело 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{FA0978AB-3A42-8246-BB00-32588DA1F72E}" name="после Т2 3" totalsRowFunction="min" dataDxfId="58" totalsRowDxfId="6">
+    <tableColumn id="37" xr3:uid="{FA0978AB-3A42-8246-BB00-32588DA1F72E}" name="после Т2 3" totalsRowFunction="min" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Вело 3]],Table1[[#This Row],[Т2 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{91563B41-83C3-2342-B5BF-EA1E9E49F314}" name="после Плавание 3" totalsRowFunction="min" dataDxfId="57" totalsRowDxfId="5">
+    <tableColumn id="38" xr3:uid="{91563B41-83C3-2342-B5BF-EA1E9E49F314}" name="после Плавание 3" totalsRowFunction="min" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[после Т2 3]],Table1[[#This Row],[Плавание 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{04186185-1B48-8F49-84BE-793ADD1C470F}" name="Старт" dataDxfId="49">
+    <tableColumn id="39" xr3:uid="{04186185-1B48-8F49-84BE-793ADD1C470F}" name="Старт" dataDxfId="21">
       <calculatedColumnFormula>Table1[[#This Row],[Старт_]]-Table1[[#Totals],[Старт_]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{9BCDD6F3-44FC-DC4D-B1B0-C40DF3A9BF51}" name="Вело 1" dataDxfId="48">
+    <tableColumn id="40" xr3:uid="{9BCDD6F3-44FC-DC4D-B1B0-C40DF3A9BF51}" name="Вело 1" dataDxfId="20">
       <calculatedColumnFormula>Table1[[#This Row],[после Вело 1]]-Table1[[#Totals],[после Вело 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{5B3F69E5-10AE-FA42-BBF2-DA3A9CE1DE51}" name="Т1 1" dataDxfId="47">
+    <tableColumn id="41" xr3:uid="{5B3F69E5-10AE-FA42-BBF2-DA3A9CE1DE51}" name="Т1 1" dataDxfId="19">
       <calculatedColumnFormula>Table1[[#This Row],[после Т1 1]]-Table1[[#Totals],[после Т1 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{A69A5293-32F1-0C49-A912-AF7D83E2075A}" name="Бег 1" dataDxfId="46">
+    <tableColumn id="42" xr3:uid="{A69A5293-32F1-0C49-A912-AF7D83E2075A}" name="Бег 1" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[после Бег 1]]-Table1[[#Totals],[после Бег 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{2F21F447-E4A7-3F40-8F09-FFC53489028B}" name="Т2 1" dataDxfId="45">
+    <tableColumn id="43" xr3:uid="{2F21F447-E4A7-3F40-8F09-FFC53489028B}" name="Т2 1" dataDxfId="17">
       <calculatedColumnFormula>Table1[[#This Row],[после Т2 1]]-Table1[[#Totals],[после Т2 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{F55DE93C-D386-7E48-9342-07C81976E354}" name="Плавание 1" dataDxfId="44">
+    <tableColumn id="44" xr3:uid="{F55DE93C-D386-7E48-9342-07C81976E354}" name="Плавание 1" dataDxfId="16">
       <calculatedColumnFormula>Table1[[#This Row],[после Плавание 1]]-Table1[[#Totals],[после Плавание 1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{2D43F754-676B-0D4F-9646-77323D93E67F}" name="Плавание 2" dataDxfId="43">
+    <tableColumn id="45" xr3:uid="{2D43F754-676B-0D4F-9646-77323D93E67F}" name="Плавание 2" dataDxfId="15">
       <calculatedColumnFormula>Table1[[#This Row],[после Плавание 2]]-Table1[[#Totals],[после Плавание 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{D82A9C25-0E4B-6E40-97C3-8942ED6334CB}" name="Т1 2" dataDxfId="42">
+    <tableColumn id="46" xr3:uid="{D82A9C25-0E4B-6E40-97C3-8942ED6334CB}" name="Т1 2" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[после Т1 2]]-Table1[[#Totals],[после Т1 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{FCE54CE2-B8EA-E14E-A256-B3B0A624687B}" name="Вело 2" dataDxfId="56">
+    <tableColumn id="47" xr3:uid="{FCE54CE2-B8EA-E14E-A256-B3B0A624687B}" name="Вело 2" dataDxfId="13">
       <calculatedColumnFormula>Table1[[#This Row],[после Вело 2]]-Table1[[#Totals],[после Вело 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{417FC60A-0000-DF46-86BC-C2CFC61C705E}" name="Т2 2" dataDxfId="55">
+    <tableColumn id="48" xr3:uid="{417FC60A-0000-DF46-86BC-C2CFC61C705E}" name="Т2 2" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[после Т2 2]]-Table1[[#Totals],[после Т2 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{BE1FF97B-765D-FA4F-8F7B-ABB557428511}" name="Бег 2" dataDxfId="54">
+    <tableColumn id="49" xr3:uid="{BE1FF97B-765D-FA4F-8F7B-ABB557428511}" name="Бег 2" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[после Бег 2]]-Table1[[#Totals],[после Бег 2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{A210CEA2-E144-0843-9512-23D696CFB65E}" name="Бег 3" dataDxfId="53">
+    <tableColumn id="50" xr3:uid="{A210CEA2-E144-0843-9512-23D696CFB65E}" name="Бег 3" dataDxfId="10">
       <calculatedColumnFormula>Table1[[#This Row],[после Бег 3]]-Table1[[#Totals],[после Бег 3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="51" xr3:uid="{92B90F9D-5C9D-FE40-A643-A30223E40EF5}" name="Т1 3" dataDxfId="52">
+    <tableColumn id="51" xr3:uid="{92B90F9D-5C9D-FE40-A643-A30223E40EF5}" name="Т1 3" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[после Т1 3]]-Table1[[#Totals],[после Т1 3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="52" xr3:uid="{F136B29C-687C-FC4A-8093-E22A557F7A97}" name="Вело 3" dataDxfId="51">
+    <tableColumn id="52" xr3:uid="{F136B29C-687C-FC4A-8093-E22A557F7A97}" name="Вело 3" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[после Вело 3]]-Table1[[#Totals],[после Вело 3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="53" xr3:uid="{4A8C8864-F6FC-5647-845B-A62D820AD7A6}" name="Т2 3" dataDxfId="50">
+    <tableColumn id="53" xr3:uid="{4A8C8864-F6FC-5647-845B-A62D820AD7A6}" name="Т2 3" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[после Т2 3]]-Table1[[#Totals],[после Т2 3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" xr3:uid="{56F45D96-6A27-8947-B942-373695297762}" name="Плавание 3" dataDxfId="1">
+    <tableColumn id="54" xr3:uid="{56F45D96-6A27-8947-B942-373695297762}" name="Плавание 3" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[после Плавание 3]]-Table1[[#Totals],[после Плавание 3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="55" xr3:uid="{952BB867-CE71-2D4A-A74A-60C40D687A0A}" name="Плавание сумма" totalsRowFunction="min" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="55" xr3:uid="{952BB867-CE71-2D4A-A74A-60C40D687A0A}" name="Плавание сумма" totalsRowFunction="min" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Плавание 1_]],Table1[[#This Row],[Плавание 2_]],Table1[[#This Row],[Плавание 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="57" xr3:uid="{4808F421-68D3-5346-ACBB-BBC012869819}" name="Вело сумма" totalsRowFunction="min" dataDxfId="0" totalsRowDxfId="4">
+    <tableColumn id="57" xr3:uid="{4808F421-68D3-5346-ACBB-BBC012869819}" name="Вело сумма" totalsRowFunction="min" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Вело 1_]],Table1[[#This Row],[Вело 2_]],Table1[[#This Row],[Вело 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="59" xr3:uid="{716AC907-B355-5B40-A7B2-F73064E42B2F}" name="Бег сумма" totalsRowFunction="min" dataDxfId="41">
+    <tableColumn id="59" xr3:uid="{716AC907-B355-5B40-A7B2-F73064E42B2F}" name="Бег сумма" totalsRowFunction="min" dataDxfId="1">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Бег 1_]],Table1[[#This Row],[Бег 2_]],Table1[[#This Row],[Бег 3_]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="60" xr3:uid="{72B513B3-1B2D-1F47-AE56-40B5F523D753}" name="Т сумма" totalsRowFunction="min" dataDxfId="40">
+    <tableColumn id="60" xr3:uid="{72B513B3-1B2D-1F47-AE56-40B5F523D753}" name="Т сумма" totalsRowFunction="min" dataDxfId="0">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Т1 1_]],Table1[[#This Row],[Т2 1_]],Table1[[#This Row],[Т1 2_]],Table1[[#This Row],[Т2 2_]],Table1[[#This Row],[Т1 3_]],Table1[[#This Row],[Т2 3_]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11099,7 +11098,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16233,8 +16232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A41023-52EF-0D40-B0BA-D3841BE6DB3E}">
   <dimension ref="A1:BF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16652,7 +16651,7 @@
         <v>2.8124999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -28772,7 +28771,7 @@
       </c>
       <c r="L60" s="1">
         <f>SUBTOTAL(105,Table1[Т1 2_])</f>
-        <v>5.5555555555555556E-4</v>
+        <v>5.9027777777777778E-4</v>
       </c>
       <c r="M60" s="1">
         <f>SUBTOTAL(105,Table1[Вело 2_])</f>
@@ -28808,11 +28807,11 @@
       </c>
       <c r="U60" s="1">
         <f>SUBTOTAL(105,Table1[Плавание 3_])</f>
-        <v>2.4421296296296296E-3</v>
+        <v>2.5347222222222221E-3</v>
       </c>
       <c r="V60" s="1">
         <f>SUBTOTAL(105,Table1[Общее])</f>
-        <v>2.3541666666666666E-2</v>
+        <v>3.4583333333333327E-2</v>
       </c>
       <c r="W60" s="1">
         <f>SUBTOTAL(105,Table1[Старт_])</f>
@@ -28884,64 +28883,30 @@
       </c>
       <c r="BD60" s="1">
         <f>SUBTOTAL(105,Table1[Вело сумма])</f>
-        <v>1.0752314814814815E-2</v>
+        <v>1.5601851851851849E-2</v>
       </c>
       <c r="BE60" s="1">
         <f>SUBTOTAL(105,Table1[Бег сумма])</f>
-        <v>6.0300925925925921E-3</v>
+        <v>8.9467592592592602E-3</v>
       </c>
       <c r="BF60" s="1">
         <f>SUBTOTAL(105,Table1[Т сумма])</f>
-        <v>2.3611111111111111E-3</v>
+        <v>2.7430555555555559E-3</v>
       </c>
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="1">
-        <f>Table1[[#Totals],[Плавание сумма]]</f>
-        <v>7.2800925925925923E-3</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="1">
-        <f>Table1[[#Totals],[Вело сумма]]</f>
-        <v>1.0752314814814815E-2</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="1">
-        <f>Table1[[#Totals],[Бег сумма]]</f>
-        <v>6.0300925925925921E-3</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="1">
-        <f>Table1[[#Totals],[Т сумма]]</f>
-        <v>2.3611111111111111E-3</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
